--- a/AI_Engine/Resultados/Resultados buenos/dataFrame - 70018938.xlsx
+++ b/AI_Engine/Resultados/Resultados buenos/dataFrame - 70018938.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proyectos\Nueva carpeta\Bot-Creacion-de-Pedidos\AI_Engine\Resultados\Resultados buenos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C56099-808E-4644-9FD4-728307BAD0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4520964C-5901-4C6A-97D0-E6DF1AF24B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="3300" windowWidth="7905" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1635" yWindow="10590" windowWidth="11325" windowHeight="6825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4677" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4678" uniqueCount="127">
   <si>
     <t>archivo</t>
   </si>
@@ -414,6 +414,9 @@
   <si>
     <t>x</t>
   </si>
+  <si>
+    <t>Esta en 00</t>
+  </si>
 </sst>
 </file>
 
@@ -433,12 +436,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -468,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -476,6 +485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J670"/>
+  <dimension ref="A1:K670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +807,7 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -823,7 +833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -852,7 +862,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -880,8 +890,11 @@
       <c r="J3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -910,7 +923,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -939,7 +952,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -968,7 +981,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -997,7 +1010,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1026,7 +1039,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1055,7 +1068,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1084,7 +1097,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1113,7 +1126,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1142,7 +1155,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1171,7 +1184,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1200,7 +1213,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1229,7 +1242,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/AI_Engine/Resultados/Resultados buenos/dataFrame - 70018938.xlsx
+++ b/AI_Engine/Resultados/Resultados buenos/dataFrame - 70018938.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deere-my.sharepoint.com/personal/gonzalezdiazsergio_johndeere_com/Documents/Desktop/Proyectos/Bot-Creacion-de-Pedidos/AI_Engine/Resultados/Resultados buenos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{4520964C-5901-4C6A-97D0-E6DF1AF24B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B24F4C95-1B3B-4EF9-B09D-C829DDC7612D}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{4520964C-5901-4C6A-97D0-E6DF1AF24B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C7844BF-97AE-4AFA-922C-6CF4FE55B4CB}"/>
   <bookViews>
-    <workbookView xWindow="21180" yWindow="2055" windowWidth="13950" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="840" windowWidth="13950" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -772,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O670"/>
+  <dimension ref="A1:M670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="J666" sqref="J666"/>
+    <sheetView tabSelected="1" topLeftCell="A643" workbookViewId="0">
+      <selection activeCell="I654" sqref="I654"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14243,7 +14243,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -14272,7 +14272,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -14301,7 +14301,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -14359,7 +14359,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -14388,7 +14388,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -14417,7 +14417,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -14446,7 +14446,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -14475,7 +14475,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -14533,7 +14533,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -14562,7 +14562,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -14591,7 +14591,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -14649,7 +14649,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -14678,7 +14678,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -14706,8 +14706,8 @@
       <c r="J480" t="s">
         <v>123</v>
       </c>
-      <c r="O480">
-        <f>+PO480</f>
+      <c r="M480">
+        <f>+PM480</f>
         <v>0</v>
       </c>
     </row>

--- a/AI_Engine/Resultados/Resultados buenos/dataFrame - 70018938.xlsx
+++ b/AI_Engine/Resultados/Resultados buenos/dataFrame - 70018938.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deere-my.sharepoint.com/personal/gonzalezdiazsergio_johndeere_com/Documents/Desktop/Proyectos/Bot-Creacion-de-Pedidos/AI_Engine/Resultados/Resultados buenos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{4520964C-5901-4C6A-97D0-E6DF1AF24B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C7844BF-97AE-4AFA-922C-6CF4FE55B4CB}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{4520964C-5901-4C6A-97D0-E6DF1AF24B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D2392A6-8191-4793-BDD4-632FC07B8498}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="840" windowWidth="13950" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="-1380" windowWidth="13950" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -772,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M670"/>
+  <dimension ref="A1:J670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A643" workbookViewId="0">
-      <selection activeCell="I654" sqref="I654"/>
+    <sheetView tabSelected="1" topLeftCell="A652" workbookViewId="0">
+      <selection activeCell="I668" sqref="I668"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14243,7 +14243,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -14272,7 +14272,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -14301,7 +14301,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -14359,7 +14359,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -14388,7 +14388,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -14417,7 +14417,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -14446,7 +14446,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -14475,7 +14475,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -14533,7 +14533,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -14562,7 +14562,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -14591,7 +14591,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -14649,7 +14649,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -14678,7 +14678,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -14705,10 +14705,6 @@
       </c>
       <c r="J480" t="s">
         <v>123</v>
-      </c>
-      <c r="M480">
-        <f>+PM480</f>
-        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.25">

--- a/AI_Engine/Resultados/Resultados buenos/dataFrame - 70018938.xlsx
+++ b/AI_Engine/Resultados/Resultados buenos/dataFrame - 70018938.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deere-my.sharepoint.com/personal/gonzalezdiazsergio_johndeere_com/Documents/Desktop/Proyectos/Bot-Creacion-de-Pedidos/AI_Engine/Resultados/Resultados buenos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{4520964C-5901-4C6A-97D0-E6DF1AF24B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D2392A6-8191-4793-BDD4-632FC07B8498}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{4520964C-5901-4C6A-97D0-E6DF1AF24B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AD47CE6-F63F-4FFB-B3D7-68BEB7857D7F}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="-1380" windowWidth="13950" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="0" windowWidth="20925" windowHeight="16995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +425,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -462,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -470,6 +478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J670"/>
+  <dimension ref="A1:M670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A652" workbookViewId="0">
-      <selection activeCell="I668" sqref="I668"/>
+    <sheetView tabSelected="1" topLeftCell="A633" workbookViewId="0">
+      <selection activeCell="I651" sqref="I651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,10 +842,10 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I2">
         <v>87.801000000000002</v>
@@ -865,10 +874,10 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I3">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J3" t="s">
         <v>123</v>
@@ -891,13 +900,13 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I4">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J4" t="s">
         <v>123</v>
@@ -923,7 +932,7 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I5">
         <v>87.801000000000002</v>
@@ -949,13 +958,13 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I6">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J6" t="s">
         <v>123</v>
@@ -981,10 +990,10 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I7">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J7" t="s">
         <v>123</v>
@@ -1039,10 +1048,10 @@
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I9">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J9" t="s">
         <v>123</v>
@@ -1065,13 +1074,13 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I10">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J10" t="s">
         <v>123</v>
@@ -1097,7 +1106,7 @@
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I11">
         <v>87.801000000000002</v>
@@ -1123,13 +1132,13 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I12">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J12" t="s">
         <v>123</v>
@@ -1155,10 +1164,10 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I13">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J13" t="s">
         <v>123</v>
@@ -1181,10 +1190,10 @@
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I14">
         <v>87.801000000000002</v>
@@ -1210,13 +1219,13 @@
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I15">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J15" t="s">
         <v>123</v>
@@ -1242,7 +1251,7 @@
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="I16">
         <v>87.358000000000004</v>
@@ -1268,13 +1277,13 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I17">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J17" t="s">
         <v>123</v>
@@ -1297,13 +1306,13 @@
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I18">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J18" t="s">
         <v>123</v>
@@ -1329,7 +1338,7 @@
         <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I19">
         <v>87.358000000000004</v>
@@ -1355,13 +1364,13 @@
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I20">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J20" t="s">
         <v>123</v>
@@ -1384,13 +1393,13 @@
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I21">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J21" t="s">
         <v>123</v>
@@ -1416,7 +1425,7 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22">
         <v>87.358000000000004</v>
@@ -1442,13 +1451,13 @@
         <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I23">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J23" t="s">
         <v>123</v>
@@ -1471,13 +1480,13 @@
         <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I24">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J24" t="s">
         <v>123</v>
@@ -1503,7 +1512,7 @@
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="I25">
         <v>87.358000000000004</v>
@@ -1529,13 +1538,13 @@
         <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I26">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J26" t="s">
         <v>123</v>
@@ -1561,10 +1570,10 @@
         <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I27">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J27" t="s">
         <v>123</v>
@@ -1590,7 +1599,7 @@
         <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I28">
         <v>87.358000000000004</v>
@@ -1619,10 +1628,10 @@
         <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I29">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J29" t="s">
         <v>123</v>
@@ -1648,10 +1657,10 @@
         <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I30">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J30" t="s">
         <v>123</v>
@@ -1706,10 +1715,10 @@
         <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I32">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J32" t="s">
         <v>123</v>
@@ -1735,10 +1744,10 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I33">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J33" t="s">
         <v>123</v>
@@ -1764,7 +1773,7 @@
         <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I34">
         <v>87.358000000000004</v>
@@ -1793,10 +1802,10 @@
         <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I35">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J35" t="s">
         <v>123</v>
@@ -1819,13 +1828,13 @@
         <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I36">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J36" t="s">
         <v>123</v>
@@ -1851,10 +1860,10 @@
         <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I37">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J37" t="s">
         <v>123</v>
@@ -1880,10 +1889,10 @@
         <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I38">
-        <v>86.88</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J38" t="s">
         <v>123</v>
@@ -1906,13 +1915,13 @@
         <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I39">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J39" t="s">
         <v>123</v>
@@ -1938,10 +1947,10 @@
         <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I40">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J40" t="s">
         <v>123</v>
@@ -1996,10 +2005,10 @@
         <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I42">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J42" t="s">
         <v>123</v>
@@ -2022,13 +2031,13 @@
         <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H43" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I43">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J43" t="s">
         <v>123</v>
@@ -2054,10 +2063,10 @@
         <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I44">
-        <v>72.855999999999995</v>
+        <v>86.88</v>
       </c>
       <c r="J44" t="s">
         <v>123</v>
@@ -2083,10 +2092,10 @@
         <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I45">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J45" t="s">
         <v>123</v>
@@ -2109,13 +2118,13 @@
         <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I46">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J46" t="s">
         <v>123</v>
@@ -2138,10 +2147,10 @@
         <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I47">
         <v>87.801000000000002</v>
@@ -2170,10 +2179,10 @@
         <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I48">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J48" t="s">
         <v>123</v>
@@ -2196,13 +2205,13 @@
         <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I49">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J49" t="s">
         <v>123</v>
@@ -2228,7 +2237,7 @@
         <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I50">
         <v>87.801000000000002</v>
@@ -2257,10 +2266,10 @@
         <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I51">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J51" t="s">
         <v>123</v>
@@ -2286,10 +2295,10 @@
         <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I52">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J52" t="s">
         <v>123</v>
@@ -2315,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I53">
         <v>87.801000000000002</v>
@@ -2341,13 +2350,13 @@
         <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H54" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I54">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J54" t="s">
         <v>123</v>
@@ -2373,10 +2382,10 @@
         <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I55">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J55" t="s">
         <v>123</v>
@@ -2399,10 +2408,10 @@
         <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H56" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I56">
         <v>87.801000000000002</v>
@@ -2431,10 +2440,10 @@
         <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="I57">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J57" t="s">
         <v>123</v>
@@ -2457,10 +2466,10 @@
         <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I58">
         <v>87.358000000000004</v>
@@ -2486,13 +2495,13 @@
         <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I59">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J59" t="s">
         <v>123</v>
@@ -2518,10 +2527,10 @@
         <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I60">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J60" t="s">
         <v>123</v>
@@ -2547,7 +2556,7 @@
         <v>15</v>
       </c>
       <c r="H61" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I61">
         <v>87.358000000000004</v>
@@ -2576,10 +2585,10 @@
         <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I62">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J62" t="s">
         <v>123</v>
@@ -2605,10 +2614,10 @@
         <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I63">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J63" t="s">
         <v>123</v>
@@ -2634,7 +2643,7 @@
         <v>15</v>
       </c>
       <c r="H64" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I64">
         <v>87.358000000000004</v>
@@ -2663,10 +2672,10 @@
         <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I65">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J65" t="s">
         <v>123</v>
@@ -2689,13 +2698,13 @@
         <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I66">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J66" t="s">
         <v>123</v>
@@ -2718,10 +2727,10 @@
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I67">
         <v>87.358000000000004</v>
@@ -2750,10 +2759,10 @@
         <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="I68">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J68" t="s">
         <v>123</v>
@@ -2779,10 +2788,10 @@
         <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I69">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J69" t="s">
         <v>123</v>
@@ -2805,13 +2814,13 @@
         <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H70" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I70">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J70" t="s">
         <v>123</v>
@@ -2837,10 +2846,10 @@
         <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I71">
-        <v>86.88</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J71" t="s">
         <v>123</v>
@@ -2866,10 +2875,10 @@
         <v>15</v>
       </c>
       <c r="H72" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I72">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J72" t="s">
         <v>123</v>
@@ -2895,10 +2904,10 @@
         <v>12</v>
       </c>
       <c r="H73" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I73">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J73" t="s">
         <v>123</v>
@@ -2921,13 +2930,13 @@
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H74" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I74">
-        <v>86.88</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J74" t="s">
         <v>123</v>
@@ -2950,13 +2959,13 @@
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I75">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J75" t="s">
         <v>123</v>
@@ -2979,13 +2988,13 @@
         <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H76" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I76">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J76" t="s">
         <v>123</v>
@@ -3008,13 +3017,13 @@
         <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I77">
-        <v>72.855999999999995</v>
+        <v>86.88</v>
       </c>
       <c r="J77" t="s">
         <v>123</v>
@@ -3040,10 +3049,10 @@
         <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I78">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J78" t="s">
         <v>123</v>
@@ -3069,10 +3078,10 @@
         <v>15</v>
       </c>
       <c r="H79" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I79">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J79" t="s">
         <v>123</v>
@@ -3098,10 +3107,10 @@
         <v>12</v>
       </c>
       <c r="H80" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I80">
-        <v>72.855999999999995</v>
+        <v>86.88</v>
       </c>
       <c r="J80" t="s">
         <v>123</v>
@@ -3124,13 +3133,13 @@
         <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H81" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I81">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J81" t="s">
         <v>123</v>
@@ -3156,10 +3165,10 @@
         <v>12</v>
       </c>
       <c r="H82" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I82">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J82" t="s">
         <v>123</v>
@@ -3182,13 +3191,13 @@
         <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I83">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J83" t="s">
         <v>123</v>
@@ -3214,7 +3223,7 @@
         <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="I84">
         <v>87.358000000000004</v>
@@ -3240,13 +3249,13 @@
         <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H85" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I85">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J85" t="s">
         <v>123</v>
@@ -3269,13 +3278,13 @@
         <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I86">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J86" t="s">
         <v>123</v>
@@ -3301,7 +3310,7 @@
         <v>12</v>
       </c>
       <c r="H87" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I87">
         <v>87.358000000000004</v>
@@ -3327,13 +3336,13 @@
         <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H88" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I88">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J88" t="s">
         <v>123</v>
@@ -3356,13 +3365,13 @@
         <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H89" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I89">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J89" t="s">
         <v>123</v>
@@ -3388,7 +3397,7 @@
         <v>12</v>
       </c>
       <c r="H90" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I90">
         <v>87.358000000000004</v>
@@ -3414,13 +3423,13 @@
         <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H91" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I91">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J91" t="s">
         <v>123</v>
@@ -3443,13 +3452,13 @@
         <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I92">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J92" t="s">
         <v>123</v>
@@ -3475,7 +3484,7 @@
         <v>12</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="I93">
         <v>87.358000000000004</v>
@@ -3501,13 +3510,13 @@
         <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H94" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I94">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J94" t="s">
         <v>123</v>
@@ -3533,7 +3542,7 @@
         <v>12</v>
       </c>
       <c r="H95" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I95">
         <v>87.801000000000002</v>
@@ -3562,10 +3571,10 @@
         <v>12</v>
       </c>
       <c r="H96" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I96">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J96" t="s">
         <v>123</v>
@@ -3588,13 +3597,13 @@
         <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H97" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I97">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J97" t="s">
         <v>123</v>
@@ -3617,10 +3626,10 @@
         <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H98" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I98">
         <v>87.801000000000002</v>
@@ -3649,10 +3658,10 @@
         <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I99">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J99" t="s">
         <v>123</v>
@@ -3678,10 +3687,10 @@
         <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I100">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J100" t="s">
         <v>123</v>
@@ -3704,10 +3713,10 @@
         <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I101">
         <v>87.801000000000002</v>
@@ -3733,13 +3742,13 @@
         <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H102" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I102">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J102" t="s">
         <v>123</v>
@@ -3765,10 +3774,10 @@
         <v>12</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I103">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J103" t="s">
         <v>123</v>
@@ -3794,7 +3803,7 @@
         <v>12</v>
       </c>
       <c r="H104" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I104">
         <v>87.801000000000002</v>
@@ -3823,10 +3832,10 @@
         <v>12</v>
       </c>
       <c r="H105" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="I105">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J105" t="s">
         <v>123</v>
@@ -3849,10 +3858,10 @@
         <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H106" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="I106">
         <v>87.358000000000004</v>
@@ -3881,10 +3890,10 @@
         <v>12</v>
       </c>
       <c r="H107" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I107">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J107" t="s">
         <v>123</v>
@@ -3910,10 +3919,10 @@
         <v>15</v>
       </c>
       <c r="H108" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I108">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J108" t="s">
         <v>123</v>
@@ -3939,7 +3948,7 @@
         <v>12</v>
       </c>
       <c r="H109" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I109">
         <v>87.358000000000004</v>
@@ -3968,10 +3977,10 @@
         <v>15</v>
       </c>
       <c r="H110" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="I110">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J110" t="s">
         <v>123</v>
@@ -3997,10 +4006,10 @@
         <v>12</v>
       </c>
       <c r="H111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I111">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J111" t="s">
         <v>123</v>
@@ -4055,10 +4064,10 @@
         <v>12</v>
       </c>
       <c r="H113" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I113">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J113" t="s">
         <v>123</v>
@@ -4084,10 +4093,10 @@
         <v>15</v>
       </c>
       <c r="H114" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="I114">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J114" t="s">
         <v>123</v>
@@ -4113,7 +4122,7 @@
         <v>12</v>
       </c>
       <c r="H115" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I115">
         <v>87.358000000000004</v>
@@ -4142,10 +4151,10 @@
         <v>15</v>
       </c>
       <c r="H116" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I116">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J116" t="s">
         <v>123</v>
@@ -4171,10 +4180,10 @@
         <v>12</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I117">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J117" t="s">
         <v>123</v>
@@ -4197,10 +4206,10 @@
         <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H118" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="I118">
         <v>87.358000000000004</v>
@@ -4229,10 +4238,10 @@
         <v>12</v>
       </c>
       <c r="H119" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I119">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J119" t="s">
         <v>123</v>
@@ -4255,13 +4264,13 @@
         <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H120" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="I120">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J120" t="s">
         <v>123</v>
@@ -4284,10 +4293,10 @@
         <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I121">
         <v>87.358000000000004</v>
@@ -4316,10 +4325,10 @@
         <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I122">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J122" t="s">
         <v>123</v>
@@ -4342,13 +4351,13 @@
         <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H123" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I123">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J123" t="s">
         <v>123</v>
@@ -4374,7 +4383,7 @@
         <v>12</v>
       </c>
       <c r="H124" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I124">
         <v>87.358000000000004</v>
@@ -4400,13 +4409,13 @@
         <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H125" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I125">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J125" t="s">
         <v>123</v>
@@ -4429,13 +4438,13 @@
         <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H126" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I126">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J126" t="s">
         <v>123</v>
@@ -4461,7 +4470,7 @@
         <v>12</v>
       </c>
       <c r="H127" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I127">
         <v>87.358000000000004</v>
@@ -4487,13 +4496,13 @@
         <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H128" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I128">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J128" t="s">
         <v>123</v>
@@ -4519,10 +4528,10 @@
         <v>12</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I129">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J129" t="s">
         <v>123</v>
@@ -4545,10 +4554,10 @@
         <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H130" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I130">
         <v>87.358000000000004</v>
@@ -4574,13 +4583,13 @@
         <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H131" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="I131">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J131" t="s">
         <v>123</v>
@@ -4606,10 +4615,10 @@
         <v>12</v>
       </c>
       <c r="H132" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I132">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J132" t="s">
         <v>123</v>
@@ -4632,13 +4641,13 @@
         <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H133" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I133">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J133" t="s">
         <v>123</v>
@@ -4661,13 +4670,13 @@
         <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H134" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I134">
-        <v>86.88</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J134" t="s">
         <v>123</v>
@@ -4693,10 +4702,10 @@
         <v>15</v>
       </c>
       <c r="H135" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I135">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J135" t="s">
         <v>123</v>
@@ -4722,10 +4731,10 @@
         <v>12</v>
       </c>
       <c r="H136" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="I136">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J136" t="s">
         <v>123</v>
@@ -4751,10 +4760,10 @@
         <v>15</v>
       </c>
       <c r="H137" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="I137">
-        <v>86.88</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J137" t="s">
         <v>123</v>
@@ -4780,10 +4789,10 @@
         <v>12</v>
       </c>
       <c r="H138" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I138">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J138" t="s">
         <v>123</v>
@@ -4809,10 +4818,10 @@
         <v>15</v>
       </c>
       <c r="H139" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I139">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J139" t="s">
         <v>123</v>
@@ -4867,10 +4876,10 @@
         <v>15</v>
       </c>
       <c r="H141" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I141">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J141" t="s">
         <v>123</v>
@@ -4896,10 +4905,10 @@
         <v>12</v>
       </c>
       <c r="H142" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I142">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J142" t="s">
         <v>123</v>
@@ -4925,10 +4934,10 @@
         <v>15</v>
       </c>
       <c r="H143" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="I143">
-        <v>72.855999999999995</v>
+        <v>86.88</v>
       </c>
       <c r="J143" t="s">
         <v>123</v>
@@ -4954,10 +4963,10 @@
         <v>12</v>
       </c>
       <c r="H144" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="I144">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J144" t="s">
         <v>123</v>
@@ -4983,10 +4992,10 @@
         <v>15</v>
       </c>
       <c r="H145" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I145">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J145" t="s">
         <v>123</v>
@@ -5009,13 +5018,13 @@
         <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H146" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I146">
-        <v>72.855999999999995</v>
+        <v>86.88</v>
       </c>
       <c r="J146" t="s">
         <v>123</v>
@@ -5038,13 +5047,13 @@
         <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H147" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I147">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J147" t="s">
         <v>123</v>
@@ -5070,10 +5079,10 @@
         <v>12</v>
       </c>
       <c r="H148" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I148">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J148" t="s">
         <v>123</v>
@@ -5099,10 +5108,10 @@
         <v>12</v>
       </c>
       <c r="H149" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I149">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J149" t="s">
         <v>123</v>
@@ -5125,13 +5134,13 @@
         <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H150" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I150">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J150" t="s">
         <v>123</v>
@@ -5157,10 +5166,10 @@
         <v>12</v>
       </c>
       <c r="H151" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I151">
-        <v>86.88</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J151" t="s">
         <v>123</v>
@@ -5186,10 +5195,10 @@
         <v>15</v>
       </c>
       <c r="H152" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I152">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J152" t="s">
         <v>123</v>
@@ -5215,10 +5224,10 @@
         <v>12</v>
       </c>
       <c r="H153" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I153">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J153" t="s">
         <v>123</v>
@@ -5241,13 +5250,13 @@
         <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H154" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I154">
-        <v>86.88</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J154" t="s">
         <v>123</v>
@@ -5270,13 +5279,13 @@
         <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H155" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I155">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J155" t="s">
         <v>123</v>
@@ -5299,13 +5308,13 @@
         <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H156" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I156">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J156" t="s">
         <v>123</v>
@@ -5328,13 +5337,13 @@
         <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H157" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I157">
-        <v>72.855999999999995</v>
+        <v>86.88</v>
       </c>
       <c r="J157" t="s">
         <v>123</v>
@@ -5360,10 +5369,10 @@
         <v>12</v>
       </c>
       <c r="H158" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I158">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J158" t="s">
         <v>123</v>
@@ -5389,10 +5398,10 @@
         <v>15</v>
       </c>
       <c r="H159" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I159">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J159" t="s">
         <v>123</v>
@@ -5418,10 +5427,10 @@
         <v>12</v>
       </c>
       <c r="H160" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I160">
-        <v>72.855999999999995</v>
+        <v>86.88</v>
       </c>
       <c r="J160" t="s">
         <v>123</v>
@@ -5444,13 +5453,13 @@
         <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H161" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I161">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J161" t="s">
         <v>123</v>
@@ -5476,10 +5485,10 @@
         <v>12</v>
       </c>
       <c r="H162" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I162">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J162" t="s">
         <v>123</v>
@@ -5502,10 +5511,10 @@
         <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H163" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I163">
         <v>87.801000000000002</v>
@@ -5534,10 +5543,10 @@
         <v>12</v>
       </c>
       <c r="H164" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="I164">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J164" t="s">
         <v>123</v>
@@ -5560,13 +5569,13 @@
         <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H165" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I165">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J165" t="s">
         <v>123</v>
@@ -5589,10 +5598,10 @@
         <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H166" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I166">
         <v>87.801000000000002</v>
@@ -5618,13 +5627,13 @@
         <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H167" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I167">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J167" t="s">
         <v>123</v>
@@ -5647,13 +5656,13 @@
         <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H168" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="I168">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J168" t="s">
         <v>123</v>
@@ -5676,10 +5685,10 @@
         <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H169" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I169">
         <v>87.801000000000002</v>
@@ -5705,13 +5714,13 @@
         <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H170" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="I170">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J170" t="s">
         <v>123</v>
@@ -5734,13 +5743,13 @@
         <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H171" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="I171">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J171" t="s">
         <v>123</v>
@@ -5763,10 +5772,10 @@
         <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H172" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I172">
         <v>87.801000000000002</v>
@@ -5792,13 +5801,13 @@
         <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H173" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="I173">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J173" t="s">
         <v>123</v>
@@ -5821,13 +5830,13 @@
         <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H174" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="I174">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J174" t="s">
         <v>123</v>
@@ -5850,10 +5859,10 @@
         <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H175" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="I175">
         <v>87.801000000000002</v>
@@ -5879,13 +5888,13 @@
         <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H176" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I176">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J176" t="s">
         <v>123</v>
@@ -5911,10 +5920,10 @@
         <v>12</v>
       </c>
       <c r="H177" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="I177">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J177" t="s">
         <v>123</v>
@@ -5937,10 +5946,10 @@
         <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H178" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I178">
         <v>87.801000000000002</v>
@@ -5966,10 +5975,10 @@
         <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H179" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I179">
         <v>87.801000000000002</v>
@@ -5998,10 +6007,10 @@
         <v>12</v>
       </c>
       <c r="H180" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="I180">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J180" t="s">
         <v>123</v>
@@ -6024,13 +6033,13 @@
         <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H181" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I181">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J181" t="s">
         <v>123</v>
@@ -6053,10 +6062,10 @@
         <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H182" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I182">
         <v>87.801000000000002</v>
@@ -6082,13 +6091,13 @@
         <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H183" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I183">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J183" t="s">
         <v>123</v>
@@ -6111,13 +6120,13 @@
         <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H184" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="I184">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J184" t="s">
         <v>123</v>
@@ -6140,10 +6149,10 @@
         <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H185" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I185">
         <v>87.801000000000002</v>
@@ -6169,13 +6178,13 @@
         <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H186" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="I186">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J186" t="s">
         <v>123</v>
@@ -6198,13 +6207,13 @@
         <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H187" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="I187">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J187" t="s">
         <v>123</v>
@@ -6227,10 +6236,10 @@
         <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H188" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I188">
         <v>87.801000000000002</v>
@@ -6256,13 +6265,13 @@
         <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H189" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="I189">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J189" t="s">
         <v>123</v>
@@ -6285,13 +6294,13 @@
         <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H190" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="I190">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J190" t="s">
         <v>123</v>
@@ -6314,10 +6323,10 @@
         <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H191" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="I191">
         <v>87.801000000000002</v>
@@ -6343,13 +6352,13 @@
         <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H192" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I192">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J192" t="s">
         <v>123</v>
@@ -6375,10 +6384,10 @@
         <v>12</v>
       </c>
       <c r="H193" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="I193">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J193" t="s">
         <v>123</v>
@@ -6401,10 +6410,10 @@
         <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H194" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I194">
         <v>87.801000000000002</v>
@@ -6433,10 +6442,10 @@
         <v>12</v>
       </c>
       <c r="H195" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I195">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J195" t="s">
         <v>123</v>
@@ -6462,10 +6471,10 @@
         <v>12</v>
       </c>
       <c r="H196" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="I196">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J196" t="s">
         <v>123</v>
@@ -6491,10 +6500,10 @@
         <v>12</v>
       </c>
       <c r="H197" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I197">
-        <v>86.88</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J197" t="s">
         <v>123</v>
@@ -6517,13 +6526,13 @@
         <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H198" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="I198">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J198" t="s">
         <v>123</v>
@@ -6546,13 +6555,13 @@
         <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H199" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="I199">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J199" t="s">
         <v>123</v>
@@ -6604,13 +6613,13 @@
         <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H201" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="I201">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J201" t="s">
         <v>123</v>
@@ -6633,13 +6642,13 @@
         <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H202" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="I202">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J202" t="s">
         <v>123</v>
@@ -6665,10 +6674,10 @@
         <v>12</v>
       </c>
       <c r="H203" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I203">
-        <v>72.855999999999995</v>
+        <v>86.88</v>
       </c>
       <c r="J203" t="s">
         <v>123</v>
@@ -6694,10 +6703,10 @@
         <v>12</v>
       </c>
       <c r="H204" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="I204">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J204" t="s">
         <v>123</v>
@@ -6723,10 +6732,10 @@
         <v>12</v>
       </c>
       <c r="H205" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I205">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J205" t="s">
         <v>123</v>
@@ -6752,10 +6761,10 @@
         <v>12</v>
       </c>
       <c r="H206" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I206">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J206" t="s">
         <v>123</v>
@@ -6781,10 +6790,10 @@
         <v>12</v>
       </c>
       <c r="H207" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="I207">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J207" t="s">
         <v>123</v>
@@ -6810,10 +6819,10 @@
         <v>12</v>
       </c>
       <c r="H208" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I208">
-        <v>86.88</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J208" t="s">
         <v>123</v>
@@ -6836,13 +6845,13 @@
         <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H209" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="I209">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J209" t="s">
         <v>123</v>
@@ -6865,13 +6874,13 @@
         <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H210" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="I210">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J210" t="s">
         <v>123</v>
@@ -6923,13 +6932,13 @@
         <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H212" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="I212">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J212" t="s">
         <v>123</v>
@@ -6952,13 +6961,13 @@
         <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H213" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="I213">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J213" t="s">
         <v>123</v>
@@ -6984,10 +6993,10 @@
         <v>12</v>
       </c>
       <c r="H214" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I214">
-        <v>72.855999999999995</v>
+        <v>86.88</v>
       </c>
       <c r="J214" t="s">
         <v>123</v>
@@ -7013,10 +7022,10 @@
         <v>12</v>
       </c>
       <c r="H215" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="I215">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J215" t="s">
         <v>123</v>
@@ -7042,10 +7051,10 @@
         <v>12</v>
       </c>
       <c r="H216" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I216">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J216" t="s">
         <v>123</v>
@@ -7071,10 +7080,10 @@
         <v>12</v>
       </c>
       <c r="H217" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="I217">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J217" t="s">
         <v>123</v>
@@ -7097,10 +7106,10 @@
         <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H218" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="I218">
         <v>87.358000000000004</v>
@@ -7129,10 +7138,10 @@
         <v>12</v>
       </c>
       <c r="H219" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I219">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J219" t="s">
         <v>123</v>
@@ -7158,10 +7167,10 @@
         <v>12</v>
       </c>
       <c r="H220" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I220">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J220" t="s">
         <v>123</v>
@@ -7184,10 +7193,10 @@
         <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H221" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I221">
         <v>87.358000000000004</v>
@@ -7213,13 +7222,13 @@
         <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H222" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="I222">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J222" t="s">
         <v>123</v>
@@ -7242,13 +7251,13 @@
         <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H223" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="I223">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J223" t="s">
         <v>123</v>
@@ -7271,10 +7280,10 @@
         <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H224" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I224">
         <v>87.358000000000004</v>
@@ -7303,10 +7312,10 @@
         <v>12</v>
       </c>
       <c r="H225" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I225">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J225" t="s">
         <v>123</v>
@@ -7332,10 +7341,10 @@
         <v>12</v>
       </c>
       <c r="H226" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="I226">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J226" t="s">
         <v>123</v>
@@ -7358,10 +7367,10 @@
         <v>11</v>
       </c>
       <c r="F227" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H227" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="I227">
         <v>87.358000000000004</v>
@@ -7390,10 +7399,10 @@
         <v>12</v>
       </c>
       <c r="H228" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="I228">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J228" t="s">
         <v>123</v>
@@ -7419,10 +7428,10 @@
         <v>12</v>
       </c>
       <c r="H229" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="I229">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J229" t="s">
         <v>123</v>
@@ -7445,10 +7454,10 @@
         <v>11</v>
       </c>
       <c r="F230" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H230" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="I230">
         <v>87.358000000000004</v>
@@ -7477,10 +7486,10 @@
         <v>12</v>
       </c>
       <c r="H231" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I231">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J231" t="s">
         <v>123</v>
@@ -7506,10 +7515,10 @@
         <v>12</v>
       </c>
       <c r="H232" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I232">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J232" t="s">
         <v>123</v>
@@ -7532,10 +7541,10 @@
         <v>11</v>
       </c>
       <c r="F233" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H233" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I233">
         <v>87.358000000000004</v>
@@ -7561,13 +7570,13 @@
         <v>11</v>
       </c>
       <c r="F234" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H234" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="I234">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J234" t="s">
         <v>123</v>
@@ -7590,13 +7599,13 @@
         <v>11</v>
       </c>
       <c r="F235" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H235" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="I235">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J235" t="s">
         <v>123</v>
@@ -7619,10 +7628,10 @@
         <v>11</v>
       </c>
       <c r="F236" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H236" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I236">
         <v>87.358000000000004</v>
@@ -7651,10 +7660,10 @@
         <v>12</v>
       </c>
       <c r="H237" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I237">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J237" t="s">
         <v>123</v>
@@ -7680,10 +7689,10 @@
         <v>12</v>
       </c>
       <c r="H238" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="I238">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J238" t="s">
         <v>123</v>
@@ -7706,10 +7715,10 @@
         <v>11</v>
       </c>
       <c r="F239" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H239" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="I239">
         <v>87.358000000000004</v>
@@ -7738,10 +7747,10 @@
         <v>12</v>
       </c>
       <c r="H240" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="I240">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J240" t="s">
         <v>123</v>
@@ -7767,10 +7776,10 @@
         <v>12</v>
       </c>
       <c r="H241" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="I241">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J241" t="s">
         <v>123</v>
@@ -7796,10 +7805,10 @@
         <v>12</v>
       </c>
       <c r="H242" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I242">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J242" t="s">
         <v>123</v>
@@ -7825,10 +7834,10 @@
         <v>12</v>
       </c>
       <c r="H243" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I243">
-        <v>86.88</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J243" t="s">
         <v>123</v>
@@ -7851,13 +7860,13 @@
         <v>11</v>
       </c>
       <c r="F244" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H244" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I244">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J244" t="s">
         <v>123</v>
@@ -7883,10 +7892,10 @@
         <v>12</v>
       </c>
       <c r="H245" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="I245">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J245" t="s">
         <v>123</v>
@@ -7941,10 +7950,10 @@
         <v>12</v>
       </c>
       <c r="H247" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="I247">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J247" t="s">
         <v>123</v>
@@ -7967,13 +7976,13 @@
         <v>11</v>
       </c>
       <c r="F248" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H248" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="I248">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J248" t="s">
         <v>123</v>
@@ -7999,10 +8008,10 @@
         <v>12</v>
       </c>
       <c r="H249" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I249">
-        <v>72.855999999999995</v>
+        <v>86.88</v>
       </c>
       <c r="J249" t="s">
         <v>123</v>
@@ -8028,10 +8037,10 @@
         <v>12</v>
       </c>
       <c r="H250" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I250">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J250" t="s">
         <v>123</v>
@@ -8057,10 +8066,10 @@
         <v>12</v>
       </c>
       <c r="H251" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="I251">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J251" t="s">
         <v>123</v>
@@ -8083,13 +8092,13 @@
         <v>11</v>
       </c>
       <c r="F252" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H252" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="I252">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J252" t="s">
         <v>123</v>
@@ -8115,10 +8124,10 @@
         <v>12</v>
       </c>
       <c r="H253" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="I253">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J253" t="s">
         <v>123</v>
@@ -8144,10 +8153,10 @@
         <v>15</v>
       </c>
       <c r="H254" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="I254">
-        <v>86.88</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J254" t="s">
         <v>123</v>
@@ -8173,10 +8182,10 @@
         <v>12</v>
       </c>
       <c r="H255" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I255">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J255" t="s">
         <v>123</v>
@@ -8202,10 +8211,10 @@
         <v>12</v>
       </c>
       <c r="H256" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I256">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J256" t="s">
         <v>123</v>
@@ -8228,13 +8237,13 @@
         <v>11</v>
       </c>
       <c r="F257" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H257" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I257">
-        <v>86.88</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J257" t="s">
         <v>123</v>
@@ -8257,13 +8266,13 @@
         <v>11</v>
       </c>
       <c r="F258" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H258" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I258">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J258" t="s">
         <v>123</v>
@@ -8286,13 +8295,13 @@
         <v>11</v>
       </c>
       <c r="F259" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H259" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I259">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J259" t="s">
         <v>123</v>
@@ -8315,13 +8324,13 @@
         <v>11</v>
       </c>
       <c r="F260" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H260" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I260">
-        <v>72.855999999999995</v>
+        <v>86.88</v>
       </c>
       <c r="J260" t="s">
         <v>123</v>
@@ -8347,10 +8356,10 @@
         <v>12</v>
       </c>
       <c r="H261" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="I261">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J261" t="s">
         <v>123</v>
@@ -8376,10 +8385,10 @@
         <v>12</v>
       </c>
       <c r="H262" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I262">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J262" t="s">
         <v>123</v>
@@ -8405,10 +8414,10 @@
         <v>15</v>
       </c>
       <c r="H263" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="I263">
-        <v>72.855999999999995</v>
+        <v>86.88</v>
       </c>
       <c r="J263" t="s">
         <v>123</v>
@@ -8434,10 +8443,10 @@
         <v>12</v>
       </c>
       <c r="H264" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="I264">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J264" t="s">
         <v>123</v>
@@ -8460,13 +8469,13 @@
         <v>11</v>
       </c>
       <c r="F265" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H265" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="I265">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J265" t="s">
         <v>123</v>
@@ -8492,7 +8501,7 @@
         <v>12</v>
       </c>
       <c r="H266" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="I266">
         <v>87.801000000000002</v>
@@ -8521,10 +8530,10 @@
         <v>12</v>
       </c>
       <c r="H267" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="I267">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J267" t="s">
         <v>123</v>
@@ -8550,10 +8559,10 @@
         <v>12</v>
       </c>
       <c r="H268" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I268">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J268" t="s">
         <v>123</v>
@@ -8579,7 +8588,7 @@
         <v>12</v>
       </c>
       <c r="H269" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I269">
         <v>87.801000000000002</v>
@@ -8608,10 +8617,10 @@
         <v>12</v>
       </c>
       <c r="H270" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="I270">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J270" t="s">
         <v>123</v>
@@ -8637,10 +8646,10 @@
         <v>12</v>
       </c>
       <c r="H271" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="I271">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J271" t="s">
         <v>123</v>
@@ -8666,7 +8675,7 @@
         <v>12</v>
       </c>
       <c r="H272" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="I272">
         <v>87.801000000000002</v>
@@ -8695,10 +8704,10 @@
         <v>12</v>
       </c>
       <c r="H273" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I273">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J273" t="s">
         <v>123</v>
@@ -8724,10 +8733,10 @@
         <v>12</v>
       </c>
       <c r="H274" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="I274">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J274" t="s">
         <v>123</v>
@@ -8753,7 +8762,7 @@
         <v>12</v>
       </c>
       <c r="H275" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="I275">
         <v>87.801000000000002</v>
@@ -8782,7 +8791,7 @@
         <v>12</v>
       </c>
       <c r="H276" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="I276">
         <v>87.801000000000002</v>
@@ -8808,13 +8817,13 @@
         <v>11</v>
       </c>
       <c r="F277" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H277" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="I277">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J277" t="s">
         <v>123</v>
@@ -8837,13 +8846,13 @@
         <v>11</v>
       </c>
       <c r="F278" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H278" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I278">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J278" t="s">
         <v>123</v>
@@ -8866,10 +8875,10 @@
         <v>11</v>
       </c>
       <c r="F279" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H279" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="I279">
         <v>87.801000000000002</v>
@@ -8895,13 +8904,13 @@
         <v>11</v>
       </c>
       <c r="F280" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H280" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="I280">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J280" t="s">
         <v>123</v>
@@ -8924,13 +8933,13 @@
         <v>11</v>
       </c>
       <c r="F281" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H281" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I281">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J281" t="s">
         <v>123</v>
@@ -8953,10 +8962,10 @@
         <v>11</v>
       </c>
       <c r="F282" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H282" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I282">
         <v>87.801000000000002</v>
@@ -8982,13 +8991,13 @@
         <v>11</v>
       </c>
       <c r="F283" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H283" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I283">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J283" t="s">
         <v>123</v>
@@ -9011,13 +9020,13 @@
         <v>11</v>
       </c>
       <c r="F284" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H284" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I284">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J284" t="s">
         <v>123</v>
@@ -9040,10 +9049,10 @@
         <v>11</v>
       </c>
       <c r="F285" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H285" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I285">
         <v>87.801000000000002</v>
@@ -9069,13 +9078,13 @@
         <v>11</v>
       </c>
       <c r="F286" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H286" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I286">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J286" t="s">
         <v>123</v>
@@ -9098,13 +9107,13 @@
         <v>11</v>
       </c>
       <c r="F287" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H287" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="I287">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J287" t="s">
         <v>123</v>
@@ -9127,10 +9136,10 @@
         <v>11</v>
       </c>
       <c r="F288" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H288" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="I288">
         <v>87.801000000000002</v>
@@ -9156,13 +9165,13 @@
         <v>11</v>
       </c>
       <c r="F289" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H289" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I289">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J289" t="s">
         <v>123</v>
@@ -9185,13 +9194,13 @@
         <v>11</v>
       </c>
       <c r="F290" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H290" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="I290">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J290" t="s">
         <v>123</v>
@@ -9217,7 +9226,7 @@
         <v>12</v>
       </c>
       <c r="H291" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="I291">
         <v>87.801000000000002</v>
@@ -9243,13 +9252,13 @@
         <v>11</v>
       </c>
       <c r="F292" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H292" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I292">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J292" t="s">
         <v>123</v>
@@ -9275,10 +9284,10 @@
         <v>12</v>
       </c>
       <c r="H293" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I293">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J293" t="s">
         <v>123</v>
@@ -9304,10 +9313,10 @@
         <v>15</v>
       </c>
       <c r="H294" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="I294">
-        <v>86.88</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J294" t="s">
         <v>123</v>
@@ -9333,10 +9342,10 @@
         <v>12</v>
       </c>
       <c r="H295" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I295">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J295" t="s">
         <v>123</v>
@@ -9362,10 +9371,10 @@
         <v>15</v>
       </c>
       <c r="H296" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I296">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J296" t="s">
         <v>123</v>
@@ -9391,10 +9400,10 @@
         <v>12</v>
       </c>
       <c r="H297" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I297">
-        <v>86.88</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J297" t="s">
         <v>123</v>
@@ -9417,13 +9426,13 @@
         <v>11</v>
       </c>
       <c r="F298" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H298" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I298">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J298" t="s">
         <v>123</v>
@@ -9449,10 +9458,10 @@
         <v>12</v>
       </c>
       <c r="H299" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I299">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J299" t="s">
         <v>123</v>
@@ -9507,10 +9516,10 @@
         <v>12</v>
       </c>
       <c r="H301" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I301">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J301" t="s">
         <v>123</v>
@@ -9533,13 +9542,13 @@
         <v>11</v>
       </c>
       <c r="F302" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H302" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I302">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J302" t="s">
         <v>123</v>
@@ -9565,10 +9574,10 @@
         <v>12</v>
       </c>
       <c r="H303" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I303">
-        <v>72.855999999999995</v>
+        <v>86.88</v>
       </c>
       <c r="J303" t="s">
         <v>123</v>
@@ -9594,10 +9603,10 @@
         <v>15</v>
       </c>
       <c r="H304" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I304">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J304" t="s">
         <v>123</v>
@@ -9623,10 +9632,10 @@
         <v>12</v>
       </c>
       <c r="H305" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I305">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J305" t="s">
         <v>123</v>
@@ -9652,10 +9661,10 @@
         <v>15</v>
       </c>
       <c r="H306" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I306">
-        <v>72.855999999999995</v>
+        <v>86.88</v>
       </c>
       <c r="J306" t="s">
         <v>123</v>
@@ -9681,10 +9690,10 @@
         <v>12</v>
       </c>
       <c r="H307" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I307">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J307" t="s">
         <v>123</v>
@@ -9707,13 +9716,13 @@
         <v>11</v>
       </c>
       <c r="F308" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H308" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I308">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J308" t="s">
         <v>123</v>
@@ -9736,10 +9745,10 @@
         <v>11</v>
       </c>
       <c r="F309" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H309" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I309">
         <v>87.801000000000002</v>
@@ -9768,10 +9777,10 @@
         <v>12</v>
       </c>
       <c r="H310" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I310">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J310" t="s">
         <v>123</v>
@@ -9797,10 +9806,10 @@
         <v>15</v>
       </c>
       <c r="H311" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="I311">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J311" t="s">
         <v>123</v>
@@ -9826,7 +9835,7 @@
         <v>12</v>
       </c>
       <c r="H312" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I312">
         <v>87.801000000000002</v>
@@ -9852,13 +9861,13 @@
         <v>11</v>
       </c>
       <c r="F313" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H313" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I313">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J313" t="s">
         <v>123</v>
@@ -9884,10 +9893,10 @@
         <v>12</v>
       </c>
       <c r="H314" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I314">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J314" t="s">
         <v>123</v>
@@ -9942,10 +9951,10 @@
         <v>12</v>
       </c>
       <c r="H316" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I316">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J316" t="s">
         <v>123</v>
@@ -9968,13 +9977,13 @@
         <v>11</v>
       </c>
       <c r="F317" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H317" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I317">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J317" t="s">
         <v>123</v>
@@ -10000,7 +10009,7 @@
         <v>12</v>
       </c>
       <c r="H318" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I318">
         <v>87.801000000000002</v>
@@ -10029,10 +10038,10 @@
         <v>15</v>
       </c>
       <c r="H319" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="I319">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J319" t="s">
         <v>123</v>
@@ -10058,10 +10067,10 @@
         <v>12</v>
       </c>
       <c r="H320" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I320">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J320" t="s">
         <v>123</v>
@@ -10084,10 +10093,10 @@
         <v>11</v>
       </c>
       <c r="F321" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H321" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I321">
         <v>87.801000000000002</v>
@@ -10113,10 +10122,10 @@
         <v>11</v>
       </c>
       <c r="F322" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H322" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I322">
         <v>87.801000000000002</v>
@@ -10145,10 +10154,10 @@
         <v>12</v>
       </c>
       <c r="H323" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I323">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J323" t="s">
         <v>123</v>
@@ -10174,10 +10183,10 @@
         <v>15</v>
       </c>
       <c r="H324" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="I324">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J324" t="s">
         <v>123</v>
@@ -10203,7 +10212,7 @@
         <v>12</v>
       </c>
       <c r="H325" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I325">
         <v>87.801000000000002</v>
@@ -10229,13 +10238,13 @@
         <v>11</v>
       </c>
       <c r="F326" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H326" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I326">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J326" t="s">
         <v>123</v>
@@ -10261,10 +10270,10 @@
         <v>12</v>
       </c>
       <c r="H327" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I327">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J327" t="s">
         <v>123</v>
@@ -10319,10 +10328,10 @@
         <v>12</v>
       </c>
       <c r="H329" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I329">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J329" t="s">
         <v>123</v>
@@ -10345,13 +10354,13 @@
         <v>11</v>
       </c>
       <c r="F330" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H330" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I330">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J330" t="s">
         <v>123</v>
@@ -10377,7 +10386,7 @@
         <v>12</v>
       </c>
       <c r="H331" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I331">
         <v>87.801000000000002</v>
@@ -10406,10 +10415,10 @@
         <v>15</v>
       </c>
       <c r="H332" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="I332">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J332" t="s">
         <v>123</v>
@@ -10435,10 +10444,10 @@
         <v>12</v>
       </c>
       <c r="H333" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I333">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J333" t="s">
         <v>123</v>
@@ -10461,10 +10470,10 @@
         <v>11</v>
       </c>
       <c r="F334" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H334" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I334">
         <v>87.801000000000002</v>
@@ -10493,10 +10502,10 @@
         <v>12</v>
       </c>
       <c r="H335" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I335">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J335" t="s">
         <v>123</v>
@@ -10519,10 +10528,10 @@
         <v>11</v>
       </c>
       <c r="F336" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H336" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I336">
         <v>87.358000000000004</v>
@@ -10551,10 +10560,10 @@
         <v>12</v>
       </c>
       <c r="H337" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="I337">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J337" t="s">
         <v>123</v>
@@ -10580,10 +10589,10 @@
         <v>15</v>
       </c>
       <c r="H338" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I338">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J338" t="s">
         <v>123</v>
@@ -10609,7 +10618,7 @@
         <v>12</v>
       </c>
       <c r="H339" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I339">
         <v>87.358000000000004</v>
@@ -10638,10 +10647,10 @@
         <v>15</v>
       </c>
       <c r="H340" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I340">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J340" t="s">
         <v>123</v>
@@ -10667,10 +10676,10 @@
         <v>12</v>
       </c>
       <c r="H341" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="I341">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J341" t="s">
         <v>123</v>
@@ -10725,10 +10734,10 @@
         <v>12</v>
       </c>
       <c r="H343" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="I343">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J343" t="s">
         <v>123</v>
@@ -10754,10 +10763,10 @@
         <v>15</v>
       </c>
       <c r="H344" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I344">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J344" t="s">
         <v>123</v>
@@ -10783,7 +10792,7 @@
         <v>12</v>
       </c>
       <c r="H345" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I345">
         <v>87.358000000000004</v>
@@ -10812,10 +10821,10 @@
         <v>15</v>
       </c>
       <c r="H346" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I346">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J346" t="s">
         <v>123</v>
@@ -10841,10 +10850,10 @@
         <v>12</v>
       </c>
       <c r="H347" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="I347">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J347" t="s">
         <v>123</v>
@@ -10867,10 +10876,10 @@
         <v>11</v>
       </c>
       <c r="F348" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H348" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I348">
         <v>87.358000000000004</v>
@@ -10899,10 +10908,10 @@
         <v>12</v>
       </c>
       <c r="H349" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I349">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J349" t="s">
         <v>123</v>
@@ -10925,13 +10934,13 @@
         <v>11</v>
       </c>
       <c r="F350" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H350" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I350">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J350" t="s">
         <v>123</v>
@@ -10957,10 +10966,10 @@
         <v>12</v>
       </c>
       <c r="H351" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I351">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J351" t="s">
         <v>123</v>
@@ -10986,10 +10995,10 @@
         <v>12</v>
       </c>
       <c r="H352" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I352">
-        <v>86.88</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J352" t="s">
         <v>123</v>
@@ -11012,13 +11021,13 @@
         <v>11</v>
       </c>
       <c r="F353" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H353" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I353">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J353" t="s">
         <v>123</v>
@@ -11044,10 +11053,10 @@
         <v>12</v>
       </c>
       <c r="H354" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I354">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J354" t="s">
         <v>123</v>
@@ -11102,10 +11111,10 @@
         <v>12</v>
       </c>
       <c r="H356" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I356">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J356" t="s">
         <v>123</v>
@@ -11128,13 +11137,13 @@
         <v>11</v>
       </c>
       <c r="F357" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H357" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I357">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J357" t="s">
         <v>123</v>
@@ -11160,10 +11169,10 @@
         <v>12</v>
       </c>
       <c r="H358" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I358">
-        <v>72.855999999999995</v>
+        <v>86.88</v>
       </c>
       <c r="J358" t="s">
         <v>123</v>
@@ -11189,10 +11198,10 @@
         <v>12</v>
       </c>
       <c r="H359" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I359">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J359" t="s">
         <v>123</v>
@@ -11215,13 +11224,13 @@
         <v>11</v>
       </c>
       <c r="F360" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H360" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I360">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J360" t="s">
         <v>123</v>
@@ -11247,10 +11256,10 @@
         <v>12</v>
       </c>
       <c r="H361" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I361">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J361" t="s">
         <v>123</v>
@@ -11273,13 +11282,13 @@
         <v>11</v>
       </c>
       <c r="F362" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H362" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I362">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J362" t="s">
         <v>123</v>
@@ -11305,10 +11314,10 @@
         <v>12</v>
       </c>
       <c r="H363" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="I363">
-        <v>86.88</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J363" t="s">
         <v>123</v>
@@ -11334,10 +11343,10 @@
         <v>15</v>
       </c>
       <c r="H364" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="I364">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J364" t="s">
         <v>123</v>
@@ -11363,10 +11372,10 @@
         <v>12</v>
       </c>
       <c r="H365" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I365">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J365" t="s">
         <v>123</v>
@@ -11392,10 +11401,10 @@
         <v>15</v>
       </c>
       <c r="H366" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I366">
-        <v>86.88</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J366" t="s">
         <v>123</v>
@@ -11421,10 +11430,10 @@
         <v>12</v>
       </c>
       <c r="H367" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I367">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J367" t="s">
         <v>123</v>
@@ -11450,10 +11459,10 @@
         <v>15</v>
       </c>
       <c r="H368" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="I368">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J368" t="s">
         <v>123</v>
@@ -11508,10 +11517,10 @@
         <v>15</v>
       </c>
       <c r="H370" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="I370">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J370" t="s">
         <v>123</v>
@@ -11537,10 +11546,10 @@
         <v>12</v>
       </c>
       <c r="H371" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I371">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J371" t="s">
         <v>123</v>
@@ -11566,10 +11575,10 @@
         <v>15</v>
       </c>
       <c r="H372" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I372">
-        <v>72.855999999999995</v>
+        <v>86.88</v>
       </c>
       <c r="J372" t="s">
         <v>123</v>
@@ -11595,10 +11604,10 @@
         <v>12</v>
       </c>
       <c r="H373" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I373">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J373" t="s">
         <v>123</v>
@@ -11624,10 +11633,10 @@
         <v>15</v>
       </c>
       <c r="H374" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="I374">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J374" t="s">
         <v>123</v>
@@ -11653,10 +11662,10 @@
         <v>12</v>
       </c>
       <c r="H375" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="I375">
-        <v>72.855999999999995</v>
+        <v>86.88</v>
       </c>
       <c r="J375" t="s">
         <v>123</v>
@@ -11679,13 +11688,13 @@
         <v>11</v>
       </c>
       <c r="F376" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H376" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I376">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J376" t="s">
         <v>123</v>
@@ -11711,10 +11720,10 @@
         <v>12</v>
       </c>
       <c r="H377" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I377">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J377" t="s">
         <v>123</v>
@@ -11740,10 +11749,10 @@
         <v>12</v>
       </c>
       <c r="H378" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I378">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J378" t="s">
         <v>123</v>
@@ -11766,10 +11775,10 @@
         <v>11</v>
       </c>
       <c r="F379" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H379" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I379">
         <v>87.358000000000004</v>
@@ -11798,10 +11807,10 @@
         <v>12</v>
       </c>
       <c r="H380" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="I380">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J380" t="s">
         <v>123</v>
@@ -11827,10 +11836,10 @@
         <v>15</v>
       </c>
       <c r="H381" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I381">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J381" t="s">
         <v>123</v>
@@ -11856,7 +11865,7 @@
         <v>12</v>
       </c>
       <c r="H382" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I382">
         <v>87.358000000000004</v>
@@ -11885,10 +11894,10 @@
         <v>15</v>
       </c>
       <c r="H383" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I383">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J383" t="s">
         <v>123</v>
@@ -11914,10 +11923,10 @@
         <v>12</v>
       </c>
       <c r="H384" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="I384">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J384" t="s">
         <v>123</v>
@@ -11972,10 +11981,10 @@
         <v>12</v>
       </c>
       <c r="H386" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="I386">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J386" t="s">
         <v>123</v>
@@ -12001,10 +12010,10 @@
         <v>15</v>
       </c>
       <c r="H387" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I387">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J387" t="s">
         <v>123</v>
@@ -12030,7 +12039,7 @@
         <v>12</v>
       </c>
       <c r="H388" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I388">
         <v>87.358000000000004</v>
@@ -12059,10 +12068,10 @@
         <v>15</v>
       </c>
       <c r="H389" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I389">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J389" t="s">
         <v>123</v>
@@ -12088,10 +12097,10 @@
         <v>12</v>
       </c>
       <c r="H390" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="I390">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J390" t="s">
         <v>123</v>
@@ -12114,10 +12123,10 @@
         <v>11</v>
       </c>
       <c r="F391" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H391" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I391">
         <v>87.358000000000004</v>
@@ -12146,10 +12155,10 @@
         <v>12</v>
       </c>
       <c r="H392" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I392">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J392" t="s">
         <v>123</v>
@@ -12172,10 +12181,10 @@
         <v>11</v>
       </c>
       <c r="F393" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H393" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I393">
         <v>87.801000000000002</v>
@@ -12201,13 +12210,13 @@
         <v>11</v>
       </c>
       <c r="F394" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H394" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="I394">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J394" t="s">
         <v>123</v>
@@ -12230,13 +12239,13 @@
         <v>11</v>
       </c>
       <c r="F395" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H395" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I395">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J395" t="s">
         <v>123</v>
@@ -12259,10 +12268,10 @@
         <v>11</v>
       </c>
       <c r="F396" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H396" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="I396">
         <v>87.801000000000002</v>
@@ -12288,13 +12297,13 @@
         <v>11</v>
       </c>
       <c r="F397" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H397" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="I397">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J397" t="s">
         <v>123</v>
@@ -12317,13 +12326,13 @@
         <v>11</v>
       </c>
       <c r="F398" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H398" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="I398">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J398" t="s">
         <v>123</v>
@@ -12346,10 +12355,10 @@
         <v>11</v>
       </c>
       <c r="F399" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H399" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="I399">
         <v>87.801000000000002</v>
@@ -12375,13 +12384,13 @@
         <v>11</v>
       </c>
       <c r="F400" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H400" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I400">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J400" t="s">
         <v>123</v>
@@ -12404,13 +12413,13 @@
         <v>11</v>
       </c>
       <c r="F401" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H401" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="I401">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J401" t="s">
         <v>123</v>
@@ -12433,10 +12442,10 @@
         <v>11</v>
       </c>
       <c r="F402" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H402" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="I402">
         <v>87.801000000000002</v>
@@ -12462,13 +12471,13 @@
         <v>11</v>
       </c>
       <c r="F403" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H403" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="I403">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J403" t="s">
         <v>123</v>
@@ -12491,13 +12500,13 @@
         <v>11</v>
       </c>
       <c r="F404" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H404" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="I404">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J404" t="s">
         <v>123</v>
@@ -12520,10 +12529,10 @@
         <v>11</v>
       </c>
       <c r="F405" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H405" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="I405">
         <v>87.801000000000002</v>
@@ -12549,13 +12558,13 @@
         <v>11</v>
       </c>
       <c r="F406" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H406" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I406">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J406" t="s">
         <v>123</v>
@@ -12578,13 +12587,13 @@
         <v>11</v>
       </c>
       <c r="F407" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H407" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="I407">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J407" t="s">
         <v>123</v>
@@ -12607,10 +12616,10 @@
         <v>11</v>
       </c>
       <c r="F408" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H408" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I408">
         <v>87.801000000000002</v>
@@ -12636,13 +12645,13 @@
         <v>11</v>
       </c>
       <c r="F409" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H409" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I409">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J409" t="s">
         <v>123</v>
@@ -12668,10 +12677,10 @@
         <v>12</v>
       </c>
       <c r="H410" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I410">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J410" t="s">
         <v>123</v>
@@ -12697,10 +12706,10 @@
         <v>12</v>
       </c>
       <c r="H411" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I411">
-        <v>86.88</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J411" t="s">
         <v>123</v>
@@ -12723,13 +12732,13 @@
         <v>11</v>
       </c>
       <c r="F412" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H412" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I412">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J412" t="s">
         <v>123</v>
@@ -12755,10 +12764,10 @@
         <v>12</v>
       </c>
       <c r="H413" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I413">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J413" t="s">
         <v>123</v>
@@ -12813,10 +12822,10 @@
         <v>12</v>
       </c>
       <c r="H415" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I415">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J415" t="s">
         <v>123</v>
@@ -12839,13 +12848,13 @@
         <v>11</v>
       </c>
       <c r="F416" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H416" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I416">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J416" t="s">
         <v>123</v>
@@ -12871,10 +12880,10 @@
         <v>12</v>
       </c>
       <c r="H417" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I417">
-        <v>72.855999999999995</v>
+        <v>86.88</v>
       </c>
       <c r="J417" t="s">
         <v>123</v>
@@ -12900,10 +12909,10 @@
         <v>12</v>
       </c>
       <c r="H418" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I418">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J418" t="s">
         <v>123</v>
@@ -12926,13 +12935,13 @@
         <v>11</v>
       </c>
       <c r="F419" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H419" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I419">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J419" t="s">
         <v>123</v>
@@ -12958,10 +12967,10 @@
         <v>12</v>
       </c>
       <c r="H420" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I420">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J420" t="s">
         <v>123</v>
@@ -12984,10 +12993,10 @@
         <v>11</v>
       </c>
       <c r="F421" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H421" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="I421">
         <v>87.358000000000004</v>
@@ -13013,13 +13022,13 @@
         <v>11</v>
       </c>
       <c r="F422" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H422" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I422">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J422" t="s">
         <v>123</v>
@@ -13042,13 +13051,13 @@
         <v>11</v>
       </c>
       <c r="F423" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H423" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="I423">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J423" t="s">
         <v>123</v>
@@ -13071,10 +13080,10 @@
         <v>11</v>
       </c>
       <c r="F424" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H424" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I424">
         <v>87.358000000000004</v>
@@ -13103,10 +13112,10 @@
         <v>12</v>
       </c>
       <c r="H425" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I425">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J425" t="s">
         <v>123</v>
@@ -13132,10 +13141,10 @@
         <v>15</v>
       </c>
       <c r="H426" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I426">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J426" t="s">
         <v>123</v>
@@ -13190,10 +13199,10 @@
         <v>15</v>
       </c>
       <c r="H428" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I428">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J428" t="s">
         <v>123</v>
@@ -13219,10 +13228,10 @@
         <v>12</v>
       </c>
       <c r="H429" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I429">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J429" t="s">
         <v>123</v>
@@ -13245,10 +13254,10 @@
         <v>11</v>
       </c>
       <c r="F430" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H430" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I430">
         <v>87.358000000000004</v>
@@ -13274,13 +13283,13 @@
         <v>11</v>
       </c>
       <c r="F431" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H431" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="I431">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J431" t="s">
         <v>123</v>
@@ -13303,13 +13312,13 @@
         <v>11</v>
       </c>
       <c r="F432" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H432" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I432">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J432" t="s">
         <v>123</v>
@@ -13332,10 +13341,10 @@
         <v>11</v>
       </c>
       <c r="F433" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H433" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="I433">
         <v>87.358000000000004</v>
@@ -13364,10 +13373,10 @@
         <v>12</v>
       </c>
       <c r="H434" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I434">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J434" t="s">
         <v>123</v>
@@ -13390,10 +13399,10 @@
         <v>11</v>
       </c>
       <c r="F435" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H435" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I435">
         <v>87.801000000000002</v>
@@ -13419,13 +13428,13 @@
         <v>11</v>
       </c>
       <c r="F436" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H436" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="I436">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J436" t="s">
         <v>123</v>
@@ -13448,13 +13457,13 @@
         <v>11</v>
       </c>
       <c r="F437" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H437" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I437">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J437" t="s">
         <v>123</v>
@@ -13477,10 +13486,10 @@
         <v>11</v>
       </c>
       <c r="F438" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H438" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="I438">
         <v>87.801000000000002</v>
@@ -13506,13 +13515,13 @@
         <v>11</v>
       </c>
       <c r="F439" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H439" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="I439">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J439" t="s">
         <v>123</v>
@@ -13535,13 +13544,13 @@
         <v>11</v>
       </c>
       <c r="F440" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H440" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="I440">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J440" t="s">
         <v>123</v>
@@ -13564,10 +13573,10 @@
         <v>11</v>
       </c>
       <c r="F441" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H441" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="I441">
         <v>87.801000000000002</v>
@@ -13593,13 +13602,13 @@
         <v>11</v>
       </c>
       <c r="F442" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H442" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I442">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J442" t="s">
         <v>123</v>
@@ -13622,13 +13631,13 @@
         <v>11</v>
       </c>
       <c r="F443" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H443" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="I443">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J443" t="s">
         <v>123</v>
@@ -13651,10 +13660,10 @@
         <v>11</v>
       </c>
       <c r="F444" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H444" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="I444">
         <v>87.801000000000002</v>
@@ -13680,13 +13689,13 @@
         <v>11</v>
       </c>
       <c r="F445" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H445" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="I445">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J445" t="s">
         <v>123</v>
@@ -13709,13 +13718,13 @@
         <v>11</v>
       </c>
       <c r="F446" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H446" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="I446">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J446" t="s">
         <v>123</v>
@@ -13738,10 +13747,10 @@
         <v>11</v>
       </c>
       <c r="F447" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H447" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="I447">
         <v>87.801000000000002</v>
@@ -13767,13 +13776,13 @@
         <v>11</v>
       </c>
       <c r="F448" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H448" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I448">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J448" t="s">
         <v>123</v>
@@ -13796,13 +13805,13 @@
         <v>11</v>
       </c>
       <c r="F449" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H449" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="I449">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J449" t="s">
         <v>123</v>
@@ -13825,10 +13834,10 @@
         <v>11</v>
       </c>
       <c r="F450" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H450" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I450">
         <v>87.801000000000002</v>
@@ -13854,13 +13863,13 @@
         <v>11</v>
       </c>
       <c r="F451" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H451" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I451">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J451" t="s">
         <v>123</v>
@@ -13886,7 +13895,7 @@
         <v>12</v>
       </c>
       <c r="H452" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I452">
         <v>87.358000000000004</v>
@@ -13912,13 +13921,13 @@
         <v>11</v>
       </c>
       <c r="F453" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H453" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="I453">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J453" t="s">
         <v>123</v>
@@ -13944,10 +13953,10 @@
         <v>12</v>
       </c>
       <c r="H454" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I454">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J454" t="s">
         <v>123</v>
@@ -13973,7 +13982,7 @@
         <v>15</v>
       </c>
       <c r="H455" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I455">
         <v>87.358000000000004</v>
@@ -14002,10 +14011,10 @@
         <v>12</v>
       </c>
       <c r="H456" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="I456">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J456" t="s">
         <v>123</v>
@@ -14031,10 +14040,10 @@
         <v>12</v>
       </c>
       <c r="H457" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="I457">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J457" t="s">
         <v>123</v>
@@ -14060,7 +14069,7 @@
         <v>15</v>
       </c>
       <c r="H458" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I458">
         <v>87.358000000000004</v>
@@ -14089,10 +14098,10 @@
         <v>12</v>
       </c>
       <c r="H459" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I459">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J459" t="s">
         <v>123</v>
@@ -14115,13 +14124,13 @@
         <v>11</v>
       </c>
       <c r="F460" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H460" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="I460">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J460" t="s">
         <v>123</v>
@@ -14147,7 +14156,7 @@
         <v>12</v>
       </c>
       <c r="H461" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I461">
         <v>87.358000000000004</v>
@@ -14173,13 +14182,13 @@
         <v>11</v>
       </c>
       <c r="F462" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H462" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I462">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J462" t="s">
         <v>123</v>
@@ -14205,10 +14214,10 @@
         <v>12</v>
       </c>
       <c r="H463" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I463">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J463" t="s">
         <v>123</v>
@@ -14231,10 +14240,10 @@
         <v>11</v>
       </c>
       <c r="F464" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H464" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="I464">
         <v>87.358000000000004</v>
@@ -14260,13 +14269,13 @@
         <v>11</v>
       </c>
       <c r="F465" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H465" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I465">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J465" t="s">
         <v>123</v>
@@ -14289,13 +14298,13 @@
         <v>11</v>
       </c>
       <c r="F466" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H466" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="I466">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J466" t="s">
         <v>123</v>
@@ -14318,10 +14327,10 @@
         <v>11</v>
       </c>
       <c r="F467" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H467" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I467">
         <v>87.358000000000004</v>
@@ -14350,10 +14359,10 @@
         <v>12</v>
       </c>
       <c r="H468" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I468">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J468" t="s">
         <v>123</v>
@@ -14379,10 +14388,10 @@
         <v>15</v>
       </c>
       <c r="H469" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I469">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J469" t="s">
         <v>123</v>
@@ -14437,10 +14446,10 @@
         <v>15</v>
       </c>
       <c r="H471" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I471">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J471" t="s">
         <v>123</v>
@@ -14466,10 +14475,10 @@
         <v>12</v>
       </c>
       <c r="H472" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I472">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J472" t="s">
         <v>123</v>
@@ -14492,10 +14501,10 @@
         <v>11</v>
       </c>
       <c r="F473" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H473" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I473">
         <v>87.358000000000004</v>
@@ -14521,13 +14530,13 @@
         <v>11</v>
       </c>
       <c r="F474" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H474" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="I474">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J474" t="s">
         <v>123</v>
@@ -14550,13 +14559,13 @@
         <v>11</v>
       </c>
       <c r="F475" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H475" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I475">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J475" t="s">
         <v>123</v>
@@ -14579,10 +14588,10 @@
         <v>11</v>
       </c>
       <c r="F476" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H476" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="I476">
         <v>87.358000000000004</v>
@@ -14611,10 +14620,10 @@
         <v>12</v>
       </c>
       <c r="H477" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I477">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J477" t="s">
         <v>123</v>
@@ -14640,10 +14649,10 @@
         <v>12</v>
       </c>
       <c r="H478" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I478">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J478" t="s">
         <v>123</v>
@@ -14666,13 +14675,13 @@
         <v>11</v>
       </c>
       <c r="F479" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H479" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I479">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J479" t="s">
         <v>123</v>
@@ -14698,10 +14707,10 @@
         <v>12</v>
       </c>
       <c r="H480" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="I480">
-        <v>86.88</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J480" t="s">
         <v>123</v>
@@ -14727,10 +14736,10 @@
         <v>15</v>
       </c>
       <c r="H481" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I481">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J481" t="s">
         <v>123</v>
@@ -14756,10 +14765,10 @@
         <v>12</v>
       </c>
       <c r="H482" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I482">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J482" t="s">
         <v>123</v>
@@ -14814,10 +14823,10 @@
         <v>12</v>
       </c>
       <c r="H484" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I484">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J484" t="s">
         <v>123</v>
@@ -14843,10 +14852,10 @@
         <v>15</v>
       </c>
       <c r="H485" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I485">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J485" t="s">
         <v>123</v>
@@ -14872,10 +14881,10 @@
         <v>12</v>
       </c>
       <c r="H486" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="I486">
-        <v>72.855999999999995</v>
+        <v>86.88</v>
       </c>
       <c r="J486" t="s">
         <v>123</v>
@@ -14898,13 +14907,13 @@
         <v>11</v>
       </c>
       <c r="F487" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H487" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I487">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J487" t="s">
         <v>123</v>
@@ -14930,10 +14939,10 @@
         <v>12</v>
       </c>
       <c r="H488" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I488">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J488" t="s">
         <v>123</v>
@@ -14959,10 +14968,10 @@
         <v>12</v>
       </c>
       <c r="H489" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I489">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J489" t="s">
         <v>123</v>
@@ -14988,7 +14997,7 @@
         <v>15</v>
       </c>
       <c r="H490" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I490">
         <v>87.358000000000004</v>
@@ -15017,10 +15026,10 @@
         <v>12</v>
       </c>
       <c r="H491" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="I491">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J491" t="s">
         <v>123</v>
@@ -15043,13 +15052,13 @@
         <v>11</v>
       </c>
       <c r="F492" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H492" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I492">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J492" t="s">
         <v>123</v>
@@ -15075,7 +15084,7 @@
         <v>12</v>
       </c>
       <c r="H493" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I493">
         <v>87.358000000000004</v>
@@ -15104,10 +15113,10 @@
         <v>15</v>
       </c>
       <c r="H494" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I494">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J494" t="s">
         <v>123</v>
@@ -15133,10 +15142,10 @@
         <v>12</v>
       </c>
       <c r="H495" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="I495">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J495" t="s">
         <v>123</v>
@@ -15191,10 +15200,10 @@
         <v>12</v>
       </c>
       <c r="H497" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="I497">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J497" t="s">
         <v>123</v>
@@ -15220,10 +15229,10 @@
         <v>15</v>
       </c>
       <c r="H498" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I498">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J498" t="s">
         <v>123</v>
@@ -15249,7 +15258,7 @@
         <v>12</v>
       </c>
       <c r="H499" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I499">
         <v>87.358000000000004</v>
@@ -15275,13 +15284,13 @@
         <v>11</v>
       </c>
       <c r="F500" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H500" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I500">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J500" t="s">
         <v>123</v>
@@ -15307,10 +15316,10 @@
         <v>12</v>
       </c>
       <c r="H501" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I501">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J501" t="s">
         <v>123</v>
@@ -15336,7 +15345,7 @@
         <v>15</v>
       </c>
       <c r="H502" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I502">
         <v>87.358000000000004</v>
@@ -15365,10 +15374,10 @@
         <v>12</v>
       </c>
       <c r="H503" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I503">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J503" t="s">
         <v>123</v>
@@ -15391,13 +15400,13 @@
         <v>11</v>
       </c>
       <c r="F504" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H504" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I504">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J504" t="s">
         <v>123</v>
@@ -15423,7 +15432,7 @@
         <v>12</v>
       </c>
       <c r="H505" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I505">
         <v>87.358000000000004</v>
@@ -15449,13 +15458,13 @@
         <v>11</v>
       </c>
       <c r="F506" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H506" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="I506">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J506" t="s">
         <v>123</v>
@@ -15481,10 +15490,10 @@
         <v>12</v>
       </c>
       <c r="H507" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I507">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J507" t="s">
         <v>123</v>
@@ -15510,7 +15519,7 @@
         <v>15</v>
       </c>
       <c r="H508" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I508">
         <v>87.358000000000004</v>
@@ -15539,10 +15548,10 @@
         <v>12</v>
       </c>
       <c r="H509" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="I509">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J509" t="s">
         <v>123</v>
@@ -15568,10 +15577,10 @@
         <v>12</v>
       </c>
       <c r="H510" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="I510">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J510" t="s">
         <v>123</v>
@@ -15597,7 +15606,7 @@
         <v>15</v>
       </c>
       <c r="H511" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I511">
         <v>87.358000000000004</v>
@@ -15626,10 +15635,10 @@
         <v>12</v>
       </c>
       <c r="H512" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I512">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J512" t="s">
         <v>123</v>
@@ -15652,13 +15661,13 @@
         <v>11</v>
       </c>
       <c r="F513" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H513" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="I513">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J513" t="s">
         <v>123</v>
@@ -15684,7 +15693,7 @@
         <v>12</v>
       </c>
       <c r="H514" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I514">
         <v>87.358000000000004</v>
@@ -15710,13 +15719,13 @@
         <v>11</v>
       </c>
       <c r="F515" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H515" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I515">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J515" t="s">
         <v>123</v>
@@ -15739,13 +15748,13 @@
         <v>11</v>
       </c>
       <c r="F516" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H516" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I516">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J516" t="s">
         <v>123</v>
@@ -15771,7 +15780,7 @@
         <v>12</v>
       </c>
       <c r="H517" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I517">
         <v>87.358000000000004</v>
@@ -15800,10 +15809,10 @@
         <v>15</v>
       </c>
       <c r="H518" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="I518">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J518" t="s">
         <v>123</v>
@@ -15829,10 +15838,10 @@
         <v>12</v>
       </c>
       <c r="H519" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I519">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J519" t="s">
         <v>123</v>
@@ -15858,7 +15867,7 @@
         <v>15</v>
       </c>
       <c r="H520" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I520">
         <v>87.358000000000004</v>
@@ -15887,10 +15896,10 @@
         <v>12</v>
       </c>
       <c r="H521" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="I521">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J521" t="s">
         <v>123</v>
@@ -15916,10 +15925,10 @@
         <v>15</v>
       </c>
       <c r="H522" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I522">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J522" t="s">
         <v>123</v>
@@ -15974,10 +15983,10 @@
         <v>15</v>
       </c>
       <c r="H524" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I524">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J524" t="s">
         <v>123</v>
@@ -16003,10 +16012,10 @@
         <v>12</v>
       </c>
       <c r="H525" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="I525">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J525" t="s">
         <v>123</v>
@@ -16032,7 +16041,7 @@
         <v>15</v>
       </c>
       <c r="H526" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I526">
         <v>87.358000000000004</v>
@@ -16061,10 +16070,10 @@
         <v>12</v>
       </c>
       <c r="H527" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I527">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J527" t="s">
         <v>123</v>
@@ -16090,10 +16099,10 @@
         <v>15</v>
       </c>
       <c r="H528" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="I528">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J528" t="s">
         <v>123</v>
@@ -16119,7 +16128,7 @@
         <v>12</v>
       </c>
       <c r="H529" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I529">
         <v>87.358000000000004</v>
@@ -16145,13 +16154,13 @@
         <v>11</v>
       </c>
       <c r="F530" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H530" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I530">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J530" t="s">
         <v>123</v>
@@ -16177,10 +16186,10 @@
         <v>12</v>
       </c>
       <c r="H531" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I531">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J531" t="s">
         <v>123</v>
@@ -16203,13 +16212,13 @@
         <v>11</v>
       </c>
       <c r="F532" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H532" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I532">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J532" t="s">
         <v>123</v>
@@ -16235,10 +16244,10 @@
         <v>12</v>
       </c>
       <c r="H533" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="I533">
-        <v>86.88</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J533" t="s">
         <v>123</v>
@@ -16264,10 +16273,10 @@
         <v>15</v>
       </c>
       <c r="H534" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I534">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J534" t="s">
         <v>123</v>
@@ -16293,10 +16302,10 @@
         <v>12</v>
       </c>
       <c r="H535" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I535">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J535" t="s">
         <v>123</v>
@@ -16351,10 +16360,10 @@
         <v>12</v>
       </c>
       <c r="H537" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I537">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J537" t="s">
         <v>123</v>
@@ -16380,10 +16389,10 @@
         <v>15</v>
       </c>
       <c r="H538" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I538">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J538" t="s">
         <v>123</v>
@@ -16409,10 +16418,10 @@
         <v>12</v>
       </c>
       <c r="H539" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="I539">
-        <v>72.855999999999995</v>
+        <v>86.88</v>
       </c>
       <c r="J539" t="s">
         <v>123</v>
@@ -16435,13 +16444,13 @@
         <v>11</v>
       </c>
       <c r="F540" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H540" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I540">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J540" t="s">
         <v>123</v>
@@ -16467,10 +16476,10 @@
         <v>12</v>
       </c>
       <c r="H541" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I541">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J541" t="s">
         <v>123</v>
@@ -16496,10 +16505,10 @@
         <v>12</v>
       </c>
       <c r="H542" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I542">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J542" t="s">
         <v>123</v>
@@ -16525,7 +16534,7 @@
         <v>12</v>
       </c>
       <c r="H543" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I543">
         <v>87.358000000000004</v>
@@ -16554,10 +16563,10 @@
         <v>12</v>
       </c>
       <c r="H544" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="I544">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J544" t="s">
         <v>123</v>
@@ -16583,10 +16592,10 @@
         <v>12</v>
       </c>
       <c r="H545" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I545">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J545" t="s">
         <v>123</v>
@@ -16641,10 +16650,10 @@
         <v>12</v>
       </c>
       <c r="H547" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I547">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J547" t="s">
         <v>123</v>
@@ -16670,10 +16679,10 @@
         <v>12</v>
       </c>
       <c r="H548" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="I548">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J548" t="s">
         <v>123</v>
@@ -16699,7 +16708,7 @@
         <v>12</v>
       </c>
       <c r="H549" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I549">
         <v>87.358000000000004</v>
@@ -16728,10 +16737,10 @@
         <v>12</v>
       </c>
       <c r="H550" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I550">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J550" t="s">
         <v>123</v>
@@ -16754,10 +16763,10 @@
         <v>11</v>
       </c>
       <c r="F551" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H551" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I551">
         <v>87.801000000000002</v>
@@ -16786,10 +16795,10 @@
         <v>12</v>
       </c>
       <c r="H552" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I552">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J552" t="s">
         <v>123</v>
@@ -16812,13 +16821,13 @@
         <v>11</v>
       </c>
       <c r="F553" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H553" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I553">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J553" t="s">
         <v>123</v>
@@ -16841,10 +16850,10 @@
         <v>11</v>
       </c>
       <c r="F554" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H554" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="I554">
         <v>87.801000000000002</v>
@@ -16870,13 +16879,13 @@
         <v>11</v>
       </c>
       <c r="F555" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H555" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I555">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J555" t="s">
         <v>123</v>
@@ -16899,13 +16908,13 @@
         <v>11</v>
       </c>
       <c r="F556" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H556" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I556">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J556" t="s">
         <v>123</v>
@@ -16957,13 +16966,13 @@
         <v>11</v>
       </c>
       <c r="F558" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H558" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I558">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J558" t="s">
         <v>123</v>
@@ -16986,13 +16995,13 @@
         <v>11</v>
       </c>
       <c r="F559" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H559" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I559">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J559" t="s">
         <v>123</v>
@@ -17015,10 +17024,10 @@
         <v>11</v>
       </c>
       <c r="F560" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H560" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="I560">
         <v>87.801000000000002</v>
@@ -17044,13 +17053,13 @@
         <v>11</v>
       </c>
       <c r="F561" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H561" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I561">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J561" t="s">
         <v>123</v>
@@ -17076,10 +17085,10 @@
         <v>12</v>
       </c>
       <c r="H562" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I562">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J562" t="s">
         <v>123</v>
@@ -17102,10 +17111,10 @@
         <v>11</v>
       </c>
       <c r="F563" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H563" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I563">
         <v>87.801000000000002</v>
@@ -17134,10 +17143,10 @@
         <v>12</v>
       </c>
       <c r="H564" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I564">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J564" t="s">
         <v>123</v>
@@ -17163,10 +17172,10 @@
         <v>15</v>
       </c>
       <c r="H565" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I565">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J565" t="s">
         <v>123</v>
@@ -17192,10 +17201,10 @@
         <v>12</v>
       </c>
       <c r="H566" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I566">
-        <v>86.88</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J566" t="s">
         <v>123</v>
@@ -17221,10 +17230,10 @@
         <v>12</v>
       </c>
       <c r="H567" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="I567">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J567" t="s">
         <v>123</v>
@@ -17250,10 +17259,10 @@
         <v>12</v>
       </c>
       <c r="H568" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I568">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J568" t="s">
         <v>123</v>
@@ -17308,10 +17317,10 @@
         <v>12</v>
       </c>
       <c r="H570" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I570">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J570" t="s">
         <v>123</v>
@@ -17337,10 +17346,10 @@
         <v>12</v>
       </c>
       <c r="H571" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I571">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J571" t="s">
         <v>123</v>
@@ -17366,10 +17375,10 @@
         <v>12</v>
       </c>
       <c r="H572" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I572">
-        <v>72.855999999999995</v>
+        <v>86.88</v>
       </c>
       <c r="J572" t="s">
         <v>123</v>
@@ -17395,10 +17404,10 @@
         <v>15</v>
       </c>
       <c r="H573" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I573">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J573" t="s">
         <v>123</v>
@@ -17424,10 +17433,10 @@
         <v>12</v>
       </c>
       <c r="H574" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I574">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J574" t="s">
         <v>123</v>
@@ -17453,10 +17462,10 @@
         <v>12</v>
       </c>
       <c r="H575" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I575">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J575" t="s">
         <v>123</v>
@@ -17482,7 +17491,7 @@
         <v>15</v>
       </c>
       <c r="H576" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I576">
         <v>87.358000000000004</v>
@@ -17511,10 +17520,10 @@
         <v>12</v>
       </c>
       <c r="H577" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="I577">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J577" t="s">
         <v>123</v>
@@ -17537,13 +17546,13 @@
         <v>11</v>
       </c>
       <c r="F578" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H578" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I578">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J578" t="s">
         <v>123</v>
@@ -17569,7 +17578,7 @@
         <v>12</v>
       </c>
       <c r="H579" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I579">
         <v>87.358000000000004</v>
@@ -17598,10 +17607,10 @@
         <v>15</v>
       </c>
       <c r="H580" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I580">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J580" t="s">
         <v>123</v>
@@ -17627,10 +17636,10 @@
         <v>12</v>
       </c>
       <c r="H581" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="I581">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J581" t="s">
         <v>123</v>
@@ -17685,10 +17694,10 @@
         <v>12</v>
       </c>
       <c r="H583" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="I583">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J583" t="s">
         <v>123</v>
@@ -17714,10 +17723,10 @@
         <v>15</v>
       </c>
       <c r="H584" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I584">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J584" t="s">
         <v>123</v>
@@ -17743,7 +17752,7 @@
         <v>12</v>
       </c>
       <c r="H585" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I585">
         <v>87.358000000000004</v>
@@ -17769,13 +17778,13 @@
         <v>11</v>
       </c>
       <c r="F586" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H586" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I586">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J586" t="s">
         <v>123</v>
@@ -17801,10 +17810,10 @@
         <v>12</v>
       </c>
       <c r="H587" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I587">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J587" t="s">
         <v>123</v>
@@ -17830,7 +17839,7 @@
         <v>15</v>
       </c>
       <c r="H588" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I588">
         <v>87.358000000000004</v>
@@ -17859,10 +17868,10 @@
         <v>12</v>
       </c>
       <c r="H589" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I589">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J589" t="s">
         <v>123</v>
@@ -17885,13 +17894,13 @@
         <v>11</v>
       </c>
       <c r="F590" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H590" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I590">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J590" t="s">
         <v>123</v>
@@ -17917,7 +17926,7 @@
         <v>12</v>
       </c>
       <c r="H591" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I591">
         <v>87.358000000000004</v>
@@ -17946,10 +17955,10 @@
         <v>15</v>
       </c>
       <c r="H592" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="I592">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J592" t="s">
         <v>123</v>
@@ -17975,10 +17984,10 @@
         <v>12</v>
       </c>
       <c r="H593" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I593">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J593" t="s">
         <v>123</v>
@@ -18004,7 +18013,7 @@
         <v>15</v>
       </c>
       <c r="H594" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I594">
         <v>87.358000000000004</v>
@@ -18033,10 +18042,10 @@
         <v>12</v>
       </c>
       <c r="H595" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="I595">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J595" t="s">
         <v>123</v>
@@ -18062,10 +18071,10 @@
         <v>15</v>
       </c>
       <c r="H596" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I596">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J596" t="s">
         <v>123</v>
@@ -18120,10 +18129,10 @@
         <v>15</v>
       </c>
       <c r="H598" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I598">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J598" t="s">
         <v>123</v>
@@ -18149,10 +18158,10 @@
         <v>12</v>
       </c>
       <c r="H599" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="I599">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J599" t="s">
         <v>123</v>
@@ -18178,7 +18187,7 @@
         <v>15</v>
       </c>
       <c r="H600" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I600">
         <v>87.358000000000004</v>
@@ -18207,10 +18216,10 @@
         <v>12</v>
       </c>
       <c r="H601" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I601">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J601" t="s">
         <v>123</v>
@@ -18236,10 +18245,10 @@
         <v>15</v>
       </c>
       <c r="H602" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="I602">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J602" t="s">
         <v>123</v>
@@ -18265,7 +18274,7 @@
         <v>12</v>
       </c>
       <c r="H603" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I603">
         <v>87.358000000000004</v>
@@ -18291,13 +18300,13 @@
         <v>11</v>
       </c>
       <c r="F604" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H604" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I604">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J604" t="s">
         <v>123</v>
@@ -18320,10 +18329,10 @@
         <v>11</v>
       </c>
       <c r="F605" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H605" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I605">
         <v>87.801000000000002</v>
@@ -18352,10 +18361,10 @@
         <v>12</v>
       </c>
       <c r="H606" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I606">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J606" t="s">
         <v>123</v>
@@ -18378,13 +18387,13 @@
         <v>11</v>
       </c>
       <c r="F607" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H607" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I607">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J607" t="s">
         <v>123</v>
@@ -18410,7 +18419,7 @@
         <v>12</v>
       </c>
       <c r="H608" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I608">
         <v>87.801000000000002</v>
@@ -18436,13 +18445,13 @@
         <v>11</v>
       </c>
       <c r="F609" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H609" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I609">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J609" t="s">
         <v>123</v>
@@ -18468,10 +18477,10 @@
         <v>12</v>
       </c>
       <c r="H610" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I610">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J610" t="s">
         <v>123</v>
@@ -18526,10 +18535,10 @@
         <v>12</v>
       </c>
       <c r="H612" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I612">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J612" t="s">
         <v>123</v>
@@ -18552,13 +18561,13 @@
         <v>11</v>
       </c>
       <c r="F613" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H613" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I613">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J613" t="s">
         <v>123</v>
@@ -18584,7 +18593,7 @@
         <v>12</v>
       </c>
       <c r="H614" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I614">
         <v>87.801000000000002</v>
@@ -18610,13 +18619,13 @@
         <v>11</v>
       </c>
       <c r="F615" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H615" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I615">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J615" t="s">
         <v>123</v>
@@ -18642,10 +18651,10 @@
         <v>12</v>
       </c>
       <c r="H616" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I616">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J616" t="s">
         <v>123</v>
@@ -18668,10 +18677,10 @@
         <v>11</v>
       </c>
       <c r="F617" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H617" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I617">
         <v>87.801000000000002</v>
@@ -18700,10 +18709,10 @@
         <v>12</v>
       </c>
       <c r="H618" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I618">
-        <v>86.88</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J618" t="s">
         <v>123</v>
@@ -18729,7 +18738,7 @@
         <v>12</v>
       </c>
       <c r="H619" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I619">
         <v>87.358000000000004</v>
@@ -18758,10 +18767,10 @@
         <v>12</v>
       </c>
       <c r="H620" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="I620">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J620" t="s">
         <v>123</v>
@@ -18787,10 +18796,10 @@
         <v>12</v>
       </c>
       <c r="H621" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I621">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J621" t="s">
         <v>123</v>
@@ -18845,10 +18854,10 @@
         <v>12</v>
       </c>
       <c r="H623" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I623">
-        <v>87.801000000000002</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J623" t="s">
         <v>123</v>
@@ -18874,10 +18883,10 @@
         <v>12</v>
       </c>
       <c r="H624" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="I624">
-        <v>72.855999999999995</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J624" t="s">
         <v>123</v>
@@ -18903,7 +18912,7 @@
         <v>12</v>
       </c>
       <c r="H625" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I625">
         <v>87.358000000000004</v>
@@ -18932,10 +18941,10 @@
         <v>12</v>
       </c>
       <c r="H626" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I626">
-        <v>87.801000000000002</v>
+        <v>86.88</v>
       </c>
       <c r="J626" t="s">
         <v>123</v>
@@ -18958,10 +18967,10 @@
         <v>11</v>
       </c>
       <c r="F627" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H627" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I627">
         <v>87.801000000000002</v>
@@ -18990,10 +18999,10 @@
         <v>12</v>
       </c>
       <c r="H628" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I628">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J628" t="s">
         <v>123</v>
@@ -19016,13 +19025,13 @@
         <v>11</v>
       </c>
       <c r="F629" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H629" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I629">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J629" t="s">
         <v>123</v>
@@ -19045,10 +19054,10 @@
         <v>11</v>
       </c>
       <c r="F630" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H630" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="I630">
         <v>87.801000000000002</v>
@@ -19074,13 +19083,13 @@
         <v>11</v>
       </c>
       <c r="F631" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H631" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I631">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J631" t="s">
         <v>123</v>
@@ -19103,13 +19112,13 @@
         <v>11</v>
       </c>
       <c r="F632" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H632" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I632">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J632" t="s">
         <v>123</v>
@@ -19161,13 +19170,13 @@
         <v>11</v>
       </c>
       <c r="F634" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H634" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I634">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J634" t="s">
         <v>123</v>
@@ -19190,13 +19199,13 @@
         <v>11</v>
       </c>
       <c r="F635" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H635" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I635">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J635" t="s">
         <v>123</v>
@@ -19219,10 +19228,10 @@
         <v>11</v>
       </c>
       <c r="F636" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H636" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="I636">
         <v>87.801000000000002</v>
@@ -19248,13 +19257,13 @@
         <v>11</v>
       </c>
       <c r="F637" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H637" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I637">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J637" t="s">
         <v>123</v>
@@ -19280,10 +19289,10 @@
         <v>12</v>
       </c>
       <c r="H638" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I638">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J638" t="s">
         <v>123</v>
@@ -19306,10 +19315,10 @@
         <v>11</v>
       </c>
       <c r="F639" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H639" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I639">
         <v>87.801000000000002</v>
@@ -19335,13 +19344,13 @@
         <v>11</v>
       </c>
       <c r="F640" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H640" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I640">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J640" t="s">
         <v>123</v>
@@ -19367,10 +19376,10 @@
         <v>12</v>
       </c>
       <c r="H641" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I641">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J641" t="s">
         <v>123</v>
@@ -19396,10 +19405,10 @@
         <v>12</v>
       </c>
       <c r="H642" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I642">
-        <v>86.88</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J642" t="s">
         <v>123</v>
@@ -19422,13 +19431,13 @@
         <v>11</v>
       </c>
       <c r="F643" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H643" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I643">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J643" t="s">
         <v>123</v>
@@ -19454,10 +19463,10 @@
         <v>12</v>
       </c>
       <c r="H644" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I644">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J644" t="s">
         <v>123</v>
@@ -19512,10 +19521,10 @@
         <v>12</v>
       </c>
       <c r="H646" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I646">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J646" t="s">
         <v>123</v>
@@ -19538,13 +19547,13 @@
         <v>11</v>
       </c>
       <c r="F647" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H647" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I647">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J647" t="s">
         <v>123</v>
@@ -19570,10 +19579,10 @@
         <v>12</v>
       </c>
       <c r="H648" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I648">
-        <v>72.855999999999995</v>
+        <v>86.88</v>
       </c>
       <c r="J648" t="s">
         <v>123</v>
@@ -19599,10 +19608,10 @@
         <v>12</v>
       </c>
       <c r="H649" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I649">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J649" t="s">
         <v>123</v>
@@ -19625,13 +19634,13 @@
         <v>11</v>
       </c>
       <c r="F650" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H650" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I650">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J650" t="s">
         <v>123</v>
@@ -19654,10 +19663,10 @@
         <v>11</v>
       </c>
       <c r="F651" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H651" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I651">
         <v>87.801000000000002</v>
@@ -19686,10 +19695,10 @@
         <v>12</v>
       </c>
       <c r="H652" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I652">
-        <v>86.88</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J652" t="s">
         <v>123</v>
@@ -19712,13 +19721,13 @@
         <v>11</v>
       </c>
       <c r="F653" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H653" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I653">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J653" t="s">
         <v>123</v>
@@ -19744,7 +19753,7 @@
         <v>12</v>
       </c>
       <c r="H654" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I654">
         <v>87.801000000000002</v>
@@ -19773,10 +19782,10 @@
         <v>12</v>
       </c>
       <c r="H655" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I655">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J655" t="s">
         <v>123</v>
@@ -19802,16 +19811,16 @@
         <v>12</v>
       </c>
       <c r="H656" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I656">
-        <v>87.358000000000004</v>
+        <v>72.855999999999995</v>
       </c>
       <c r="J656" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -19831,7 +19840,7 @@
         <v>12</v>
       </c>
       <c r="H657" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I657">
         <v>87.801000000000002</v>
@@ -19840,7 +19849,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -19857,19 +19866,19 @@
         <v>11</v>
       </c>
       <c r="F658" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H658" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I658">
-        <v>72.855999999999995</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J658" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -19889,16 +19898,16 @@
         <v>12</v>
       </c>
       <c r="H659" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I659">
-        <v>87.358000000000004</v>
+        <v>86.88</v>
       </c>
       <c r="J659" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -19915,10 +19924,10 @@
         <v>11</v>
       </c>
       <c r="F660" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H660" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I660">
         <v>87.801000000000002</v>
@@ -19927,7 +19936,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -19947,16 +19956,16 @@
         <v>12</v>
       </c>
       <c r="H661" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I661">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J661" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -19976,16 +19985,16 @@
         <v>12</v>
       </c>
       <c r="H662" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I662">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J662" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -20005,7 +20014,7 @@
         <v>12</v>
       </c>
       <c r="H663" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I663">
         <v>72.855999999999995</v>
@@ -20013,8 +20022,9 @@
       <c r="J663" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M663" s="3"/>
+    </row>
+    <row r="664" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -20034,16 +20044,16 @@
         <v>12</v>
       </c>
       <c r="H664" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I664">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J664" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -20063,16 +20073,16 @@
         <v>12</v>
       </c>
       <c r="H665" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I665">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J665" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -20092,7 +20102,7 @@
         <v>12</v>
       </c>
       <c r="H666" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I666">
         <v>72.855999999999995</v>
@@ -20101,7 +20111,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -20121,16 +20131,16 @@
         <v>12</v>
       </c>
       <c r="H667" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I667">
-        <v>87.358000000000004</v>
+        <v>87.801000000000002</v>
       </c>
       <c r="J667" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -20150,19 +20160,19 @@
         <v>12</v>
       </c>
       <c r="H668" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I668">
-        <v>87.801000000000002</v>
+        <v>87.358000000000004</v>
       </c>
       <c r="J668" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I670">
         <f>AVERAGEIF(I2:I668, "&lt;&gt;-100")</f>
-        <v>85.181793103448015</v>
+        <v>85.181793103448001</v>
       </c>
     </row>
   </sheetData>
